--- a/url_data/oil_data/Texas_Total_Gasoline_All_Sales_per_Deliveries_by_Prime_Supplier.xlsx
+++ b/url_data/oil_data/Texas_Total_Gasoline_All_Sales_per_Deliveries_by_Prime_Supplier.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datta\Oil_production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github_website\dattatele.github.io\url_data\oil_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Month</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Texas Total Gasoline All Sales/Deliveries by Prime Supplier Thousand Gallons per Day</t>
+    <t>Oil</t>
   </si>
 </sst>
 </file>
@@ -897,7 +897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B416"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
